--- a/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Serie</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD222"/>
+  <dimension ref="A1:AD223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21111,7 +21114,7 @@
         <v>1071</v>
       </c>
       <c r="F218">
-        <v>-2595</v>
+        <v>-1878</v>
       </c>
       <c r="G218">
         <v>-120</v>
@@ -21141,49 +21144,49 @@
         <v>-3793</v>
       </c>
       <c r="P218">
-        <v>1932</v>
+        <v>1854</v>
       </c>
       <c r="Q218">
         <v>0</v>
       </c>
       <c r="R218">
-        <v>2381</v>
+        <v>2294</v>
       </c>
       <c r="S218">
         <v>-287</v>
       </c>
       <c r="T218">
-        <v>-162</v>
+        <v>-152</v>
       </c>
       <c r="U218">
-        <v>307</v>
+        <v>1103</v>
       </c>
       <c r="V218">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="W218">
-        <v>317</v>
+        <v>932</v>
       </c>
       <c r="X218">
         <v>-6</v>
       </c>
       <c r="Y218">
-        <v>-6</v>
+        <v>-73</v>
       </c>
       <c r="Z218">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="AA218">
-        <v>492</v>
+        <v>955</v>
       </c>
       <c r="AB218">
-        <v>522</v>
+        <v>72</v>
       </c>
       <c r="AC218">
         <v>-107</v>
       </c>
       <c r="AD218">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21203,7 +21206,7 @@
         <v>-229</v>
       </c>
       <c r="F219">
-        <v>-201</v>
+        <v>-321</v>
       </c>
       <c r="G219">
         <v>677</v>
@@ -21233,49 +21236,49 @@
         <v>-176</v>
       </c>
       <c r="P219">
-        <v>54</v>
+        <v>-26</v>
       </c>
       <c r="Q219">
         <v>0</v>
       </c>
       <c r="R219">
-        <v>-43</v>
+        <v>-133</v>
       </c>
       <c r="S219">
         <v>-236</v>
       </c>
       <c r="T219">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="U219">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="V219">
-        <v>61</v>
+        <v>-73</v>
       </c>
       <c r="W219">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="X219">
         <v>-4</v>
       </c>
       <c r="Y219">
-        <v>12</v>
+        <v>-62</v>
       </c>
       <c r="Z219">
-        <v>1454</v>
+        <v>7445</v>
       </c>
       <c r="AA219">
-        <v>520</v>
+        <v>6158</v>
       </c>
       <c r="AB219">
-        <v>660</v>
+        <v>965</v>
       </c>
       <c r="AC219">
         <v>-76</v>
       </c>
       <c r="AD219">
-        <v>350</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21295,7 +21298,7 @@
         <v>-919</v>
       </c>
       <c r="F220">
-        <v>988</v>
+        <v>2148</v>
       </c>
       <c r="G220">
         <v>872</v>
@@ -21325,49 +21328,49 @@
         <v>2384</v>
       </c>
       <c r="P220">
-        <v>-1282</v>
+        <v>-1344</v>
       </c>
       <c r="Q220">
         <v>0</v>
       </c>
       <c r="R220">
-        <v>-846</v>
+        <v>-918</v>
       </c>
       <c r="S220">
         <v>-230</v>
       </c>
       <c r="T220">
-        <v>-205</v>
+        <v>-196</v>
       </c>
       <c r="U220">
-        <v>-323</v>
+        <v>900</v>
       </c>
       <c r="V220">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="W220">
-        <v>-320</v>
+        <v>494</v>
       </c>
       <c r="X220">
         <v>-5</v>
       </c>
       <c r="Y220">
-        <v>-8</v>
+        <v>-79</v>
       </c>
       <c r="Z220">
-        <v>2219</v>
+        <v>1410</v>
       </c>
       <c r="AA220">
-        <v>685</v>
+        <v>619</v>
       </c>
       <c r="AB220">
-        <v>664</v>
+        <v>289</v>
       </c>
       <c r="AC220">
         <v>-66</v>
       </c>
       <c r="AD220">
-        <v>935</v>
+        <v>567</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -21387,7 +21390,7 @@
         <v>898</v>
       </c>
       <c r="F221">
-        <v>1219</v>
+        <v>1291</v>
       </c>
       <c r="G221">
         <v>2101</v>
@@ -21417,13 +21420,13 @@
         <v>-321</v>
       </c>
       <c r="P221">
-        <v>-13</v>
+        <v>-53</v>
       </c>
       <c r="Q221">
         <v>0</v>
       </c>
       <c r="R221">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="S221">
         <v>-222</v>
@@ -21432,34 +21435,34 @@
         <v>-188</v>
       </c>
       <c r="U221">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="V221">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="W221">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="X221">
         <v>-6</v>
       </c>
       <c r="Y221">
-        <v>-24</v>
+        <v>-28</v>
       </c>
       <c r="Z221">
-        <v>2737</v>
+        <v>3826</v>
       </c>
       <c r="AA221">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="AB221">
-        <v>576</v>
+        <v>739</v>
       </c>
       <c r="AC221">
         <v>-56</v>
       </c>
       <c r="AD221">
-        <v>1873</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -21479,7 +21482,7 @@
         <v>-36</v>
       </c>
       <c r="F222">
-        <v>-1254</v>
+        <v>-1001</v>
       </c>
       <c r="G222">
         <v>5027</v>
@@ -21494,10 +21497,10 @@
         <v>94</v>
       </c>
       <c r="K222">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="M222">
         <v>491</v>
@@ -21506,16 +21509,16 @@
         <v>-526</v>
       </c>
       <c r="O222">
-        <v>1094</v>
+        <v>1125</v>
       </c>
       <c r="P222">
-        <v>-7266</v>
+        <v>-7294</v>
       </c>
       <c r="Q222">
         <v>0</v>
       </c>
       <c r="R222">
-        <v>-7357</v>
+        <v>-7385</v>
       </c>
       <c r="S222">
         <v>-175</v>
@@ -21524,34 +21527,126 @@
         <v>267</v>
       </c>
       <c r="U222">
-        <v>-78</v>
+        <v>184</v>
       </c>
       <c r="V222">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="W222">
-        <v>-125</v>
+        <v>80</v>
       </c>
       <c r="X222">
         <v>-14</v>
       </c>
       <c r="Y222">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z222">
-        <v>-144</v>
+        <v>657</v>
       </c>
       <c r="AA222">
-        <v>437</v>
+        <v>300</v>
       </c>
       <c r="AB222">
-        <v>778</v>
+        <v>970</v>
       </c>
       <c r="AC222">
         <v>-73</v>
       </c>
       <c r="AD222">
-        <v>-1285</v>
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30">
+      <c r="A223" t="s">
+        <v>251</v>
+      </c>
+      <c r="B223">
+        <v>-3504</v>
+      </c>
+      <c r="C223">
+        <v>-2760</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>-744</v>
+      </c>
+      <c r="F223">
+        <v>-460</v>
+      </c>
+      <c r="G223">
+        <v>-2604</v>
+      </c>
+      <c r="H223">
+        <v>-2596</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>-9</v>
+      </c>
+      <c r="K223">
+        <v>588</v>
+      </c>
+      <c r="L223">
+        <v>-89</v>
+      </c>
+      <c r="M223">
+        <v>153</v>
+      </c>
+      <c r="N223">
+        <v>-581</v>
+      </c>
+      <c r="O223">
+        <v>1105</v>
+      </c>
+      <c r="P223">
+        <v>232</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>419</v>
+      </c>
+      <c r="S223">
+        <v>-216</v>
+      </c>
+      <c r="T223">
+        <v>29</v>
+      </c>
+      <c r="U223">
+        <v>1325</v>
+      </c>
+      <c r="V223">
+        <v>121</v>
+      </c>
+      <c r="W223">
+        <v>1213</v>
+      </c>
+      <c r="X223">
+        <v>-12</v>
+      </c>
+      <c r="Y223">
+        <v>3</v>
+      </c>
+      <c r="Z223">
+        <v>2167</v>
+      </c>
+      <c r="AA223">
+        <v>511</v>
+      </c>
+      <c r="AB223">
+        <v>1461</v>
+      </c>
+      <c r="AC223">
+        <v>-46</v>
+      </c>
+      <c r="AD223">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Serie</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD223"/>
+  <dimension ref="A1:AD224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21649,6 +21652,98 @@
         <v>241</v>
       </c>
     </row>
+    <row r="224" spans="1:30">
+      <c r="A224" t="s">
+        <v>252</v>
+      </c>
+      <c r="B224">
+        <v>1757</v>
+      </c>
+      <c r="C224">
+        <v>1466</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>291</v>
+      </c>
+      <c r="F224">
+        <v>3979</v>
+      </c>
+      <c r="G224">
+        <v>3590</v>
+      </c>
+      <c r="H224">
+        <v>3599</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>-8</v>
+      </c>
+      <c r="K224">
+        <v>-1003</v>
+      </c>
+      <c r="L224">
+        <v>49</v>
+      </c>
+      <c r="M224">
+        <v>-100</v>
+      </c>
+      <c r="N224">
+        <v>-609</v>
+      </c>
+      <c r="O224">
+        <v>-344</v>
+      </c>
+      <c r="P224">
+        <v>-165</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>128</v>
+      </c>
+      <c r="S224">
+        <v>-149</v>
+      </c>
+      <c r="T224">
+        <v>-144</v>
+      </c>
+      <c r="U224">
+        <v>1557</v>
+      </c>
+      <c r="V224">
+        <v>-11</v>
+      </c>
+      <c r="W224">
+        <v>1548</v>
+      </c>
+      <c r="X224">
+        <v>-7</v>
+      </c>
+      <c r="Y224">
+        <v>27</v>
+      </c>
+      <c r="Z224">
+        <v>1127</v>
+      </c>
+      <c r="AA224">
+        <v>555</v>
+      </c>
+      <c r="AB224">
+        <v>-158</v>
+      </c>
+      <c r="AC224">
+        <v>-78</v>
+      </c>
+      <c r="AD224">
+        <v>808</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>Serie</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD224"/>
+  <dimension ref="A1:AD225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21744,6 +21747,98 @@
         <v>808</v>
       </c>
     </row>
+    <row r="225" spans="1:30">
+      <c r="A225" t="s">
+        <v>253</v>
+      </c>
+      <c r="B225">
+        <v>-3886</v>
+      </c>
+      <c r="C225">
+        <v>-3686</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>-200</v>
+      </c>
+      <c r="F225">
+        <v>4406</v>
+      </c>
+      <c r="G225">
+        <v>3359</v>
+      </c>
+      <c r="H225">
+        <v>3368</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>-8</v>
+      </c>
+      <c r="K225">
+        <v>508</v>
+      </c>
+      <c r="L225">
+        <v>-5</v>
+      </c>
+      <c r="M225">
+        <v>-288</v>
+      </c>
+      <c r="N225">
+        <v>-600</v>
+      </c>
+      <c r="O225">
+        <v>1403</v>
+      </c>
+      <c r="P225">
+        <v>-392</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>-320</v>
+      </c>
+      <c r="S225">
+        <v>-134</v>
+      </c>
+      <c r="T225">
+        <v>62</v>
+      </c>
+      <c r="U225">
+        <v>930</v>
+      </c>
+      <c r="V225">
+        <v>48</v>
+      </c>
+      <c r="W225">
+        <v>887</v>
+      </c>
+      <c r="X225">
+        <v>-2</v>
+      </c>
+      <c r="Y225">
+        <v>-4</v>
+      </c>
+      <c r="Z225">
+        <v>2355</v>
+      </c>
+      <c r="AA225">
+        <v>725</v>
+      </c>
+      <c r="AB225">
+        <v>942</v>
+      </c>
+      <c r="AC225">
+        <v>-34</v>
+      </c>
+      <c r="AD225">
+        <v>721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Activos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD225"/>
+  <dimension ref="A1:AD226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21839,6 +21842,98 @@
         <v>721</v>
       </c>
     </row>
+    <row r="226" spans="1:30">
+      <c r="A226" t="s">
+        <v>254</v>
+      </c>
+      <c r="B226">
+        <v>-463</v>
+      </c>
+      <c r="C226">
+        <v>-47</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>-416</v>
+      </c>
+      <c r="F226">
+        <v>2597</v>
+      </c>
+      <c r="G226">
+        <v>1700</v>
+      </c>
+      <c r="H226">
+        <v>1709</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>-8</v>
+      </c>
+      <c r="K226">
+        <v>1217</v>
+      </c>
+      <c r="L226">
+        <v>-93</v>
+      </c>
+      <c r="M226">
+        <v>86</v>
+      </c>
+      <c r="N226">
+        <v>-527</v>
+      </c>
+      <c r="O226">
+        <v>1750</v>
+      </c>
+      <c r="P226">
+        <v>-689</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>-525</v>
+      </c>
+      <c r="S226">
+        <v>-176</v>
+      </c>
+      <c r="T226">
+        <v>11</v>
+      </c>
+      <c r="U226">
+        <v>369</v>
+      </c>
+      <c r="V226">
+        <v>136</v>
+      </c>
+      <c r="W226">
+        <v>247</v>
+      </c>
+      <c r="X226">
+        <v>-4</v>
+      </c>
+      <c r="Y226">
+        <v>-10</v>
+      </c>
+      <c r="Z226">
+        <v>2362</v>
+      </c>
+      <c r="AA226">
+        <v>599</v>
+      </c>
+      <c r="AB226">
+        <v>1339</v>
+      </c>
+      <c r="AC226">
+        <v>-52</v>
+      </c>
+      <c r="AD226">
+        <v>476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
